--- a/ตรวจงาน/รายการตรวจสอบ Mock-up (Prototype).xlsx
+++ b/ตรวจงาน/รายการตรวจสอบ Mock-up (Prototype).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\ตรวจงาน\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F329F55-CF03-4366-90DB-B896C980E32A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D74B13E-2134-40B9-9491-A7EACDE1E004}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1275" windowWidth="14400" windowHeight="11820" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C108298C-C5B1-4B19-85F2-2856099ECD84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>คำผิด</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>โยงหน้าผิด</t>
+  </si>
+  <si>
+    <t>ผู้ตรวจ</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,7 +199,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,11 +213,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E552DF3-66E3-4350-8BDE-D3162A98C3B8}">
-  <dimension ref="B2:N168"/>
+  <dimension ref="B2:O168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -537,64 +549,68 @@
     <col min="3" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:15" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+    <row r="3" spans="2:15" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -603,35 +619,36 @@
       <c r="D4" s="6">
         <v>44379</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
+      <c r="H4" s="5">
         <v>1</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5">
         <v>5</v>
       </c>
-      <c r="N4" s="5">
-        <f>SUM(E4:M4)</f>
+      <c r="O4" s="5">
+        <f>SUM(F4:N4)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
+    <row r="5" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6">
         <v>44381</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -641,18 +658,19 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="E6" s="9"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -660,12 +678,13 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -675,12 +694,13 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -690,12 +710,13 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -705,12 +726,13 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -720,12 +742,13 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -735,12 +758,13 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -750,12 +774,13 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -765,12 +790,13 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -780,12 +806,13 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -795,12 +822,13 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -810,12 +838,13 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -825,12 +854,13 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -840,12 +870,13 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -855,12 +886,13 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -870,12 +902,13 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -885,12 +918,13 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -900,12 +934,13 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -915,12 +950,13 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -930,12 +966,13 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -945,12 +982,13 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="9"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -960,12 +998,13 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -975,12 +1014,13 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -990,12 +1030,13 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -1005,12 +1046,13 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -1020,12 +1062,13 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -1035,12 +1078,13 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -1050,12 +1094,13 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -1065,12 +1110,13 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -1080,12 +1126,13 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -1095,12 +1142,13 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -1110,12 +1158,13 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -1125,12 +1174,13 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="9"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -1140,12 +1190,13 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -1155,12 +1206,13 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="9"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -1170,12 +1222,13 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="9"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -1185,12 +1238,13 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="9"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -1200,12 +1254,13 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="9"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -1215,12 +1270,13 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="9"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -1230,12 +1286,13 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -1245,12 +1302,13 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -1260,12 +1318,13 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O46" s="5"/>
+    </row>
+    <row r="47" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -1275,12 +1334,13 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O47" s="5"/>
+    </row>
+    <row r="48" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="9"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -1290,12 +1350,13 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O48" s="5"/>
+    </row>
+    <row r="49" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="9"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -1305,12 +1366,13 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O49" s="5"/>
+    </row>
+    <row r="50" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="9"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -1320,12 +1382,13 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O50" s="5"/>
+    </row>
+    <row r="51" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="9"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -1335,12 +1398,13 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
-    </row>
-    <row r="52" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O51" s="5"/>
+    </row>
+    <row r="52" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="7"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="9"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -1350,12 +1414,13 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
-    </row>
-    <row r="53" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="9"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -1365,12 +1430,13 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
-    </row>
-    <row r="54" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="7"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="9"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -1380,12 +1446,13 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
-    </row>
-    <row r="55" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O54" s="5"/>
+    </row>
+    <row r="55" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="9"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -1395,12 +1462,13 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
-    </row>
-    <row r="56" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O55" s="5"/>
+    </row>
+    <row r="56" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="7"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="9"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -1410,12 +1478,13 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
-    </row>
-    <row r="57" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="E57" s="9"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -1425,12 +1494,13 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
-    </row>
-    <row r="58" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O57" s="5"/>
+    </row>
+    <row r="58" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="9"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -1440,12 +1510,13 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
-    </row>
-    <row r="59" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O58" s="5"/>
+    </row>
+    <row r="59" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="7"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -1455,12 +1526,13 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
-    </row>
-    <row r="60" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O59" s="5"/>
+    </row>
+    <row r="60" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="7"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="9"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -1470,12 +1542,13 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
-    </row>
-    <row r="61" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O60" s="5"/>
+    </row>
+    <row r="61" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="7"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="E61" s="9"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -1485,12 +1558,13 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
-    </row>
-    <row r="62" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O61" s="5"/>
+    </row>
+    <row r="62" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="7"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
+      <c r="E62" s="9"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -1500,12 +1574,13 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
-    </row>
-    <row r="63" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O62" s="5"/>
+    </row>
+    <row r="63" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="9"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -1515,12 +1590,13 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
-    </row>
-    <row r="64" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O63" s="5"/>
+    </row>
+    <row r="64" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="7"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="9"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -1530,12 +1606,13 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
-    </row>
-    <row r="65" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O64" s="5"/>
+    </row>
+    <row r="65" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -1545,12 +1622,13 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
-    </row>
-    <row r="66" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O65" s="5"/>
+    </row>
+    <row r="66" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="7"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
+      <c r="E66" s="9"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -1560,12 +1638,13 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-    </row>
-    <row r="67" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O66" s="5"/>
+    </row>
+    <row r="67" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
+      <c r="E67" s="9"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -1575,12 +1654,13 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
-    </row>
-    <row r="68" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O67" s="5"/>
+    </row>
+    <row r="68" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="7"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
+      <c r="E68" s="9"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
@@ -1590,12 +1670,13 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
-    </row>
-    <row r="69" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O68" s="5"/>
+    </row>
+    <row r="69" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="7"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
+      <c r="E69" s="9"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -1605,8 +1686,9 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
-    </row>
-    <row r="70" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O69" s="5"/>
+    </row>
+    <row r="70" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -1619,9 +1701,10 @@
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
-      <c r="N70" s="5"/>
-    </row>
-    <row r="71" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N70" s="8"/>
+      <c r="O70" s="5"/>
+    </row>
+    <row r="71" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -1634,9 +1717,10 @@
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
-      <c r="N71" s="5"/>
-    </row>
-    <row r="72" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N71" s="8"/>
+      <c r="O71" s="5"/>
+    </row>
+    <row r="72" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -1649,9 +1733,10 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="5"/>
-    </row>
-    <row r="73" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N72" s="8"/>
+      <c r="O72" s="5"/>
+    </row>
+    <row r="73" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -1664,9 +1749,10 @@
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="5"/>
-    </row>
-    <row r="74" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N73" s="8"/>
+      <c r="O73" s="5"/>
+    </row>
+    <row r="74" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -1679,9 +1765,10 @@
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
-      <c r="N74" s="5"/>
-    </row>
-    <row r="75" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N74" s="8"/>
+      <c r="O74" s="5"/>
+    </row>
+    <row r="75" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -1694,9 +1781,10 @@
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
-      <c r="N75" s="5"/>
-    </row>
-    <row r="76" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N75" s="8"/>
+      <c r="O75" s="5"/>
+    </row>
+    <row r="76" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -1709,9 +1797,10 @@
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
-      <c r="N76" s="5"/>
-    </row>
-    <row r="77" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N76" s="8"/>
+      <c r="O76" s="5"/>
+    </row>
+    <row r="77" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -1724,9 +1813,10 @@
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
-      <c r="N77" s="5"/>
-    </row>
-    <row r="78" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N77" s="8"/>
+      <c r="O77" s="5"/>
+    </row>
+    <row r="78" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -1739,9 +1829,10 @@
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="5"/>
-    </row>
-    <row r="79" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N78" s="8"/>
+      <c r="O78" s="5"/>
+    </row>
+    <row r="79" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -1754,9 +1845,10 @@
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="5"/>
-    </row>
-    <row r="80" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N79" s="8"/>
+      <c r="O79" s="5"/>
+    </row>
+    <row r="80" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -1769,9 +1861,10 @@
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
-      <c r="N80" s="5"/>
-    </row>
-    <row r="81" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N80" s="8"/>
+      <c r="O80" s="5"/>
+    </row>
+    <row r="81" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -1784,9 +1877,10 @@
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
-      <c r="N81" s="5"/>
-    </row>
-    <row r="82" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N81" s="8"/>
+      <c r="O81" s="5"/>
+    </row>
+    <row r="82" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -1799,9 +1893,10 @@
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
-      <c r="N82" s="5"/>
-    </row>
-    <row r="83" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N82" s="8"/>
+      <c r="O82" s="5"/>
+    </row>
+    <row r="83" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -1814,9 +1909,10 @@
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
-      <c r="N83" s="5"/>
-    </row>
-    <row r="84" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N83" s="8"/>
+      <c r="O83" s="5"/>
+    </row>
+    <row r="84" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -1829,9 +1925,10 @@
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
-      <c r="N84" s="5"/>
-    </row>
-    <row r="85" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N84" s="8"/>
+      <c r="O84" s="5"/>
+    </row>
+    <row r="85" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -1844,9 +1941,10 @@
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
-      <c r="N85" s="5"/>
-    </row>
-    <row r="86" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N85" s="8"/>
+      <c r="O85" s="5"/>
+    </row>
+    <row r="86" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -1859,9 +1957,10 @@
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
-      <c r="N86" s="5"/>
-    </row>
-    <row r="87" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N86" s="8"/>
+      <c r="O86" s="5"/>
+    </row>
+    <row r="87" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -1874,9 +1973,10 @@
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
-      <c r="N87" s="5"/>
-    </row>
-    <row r="88" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N87" s="8"/>
+      <c r="O87" s="5"/>
+    </row>
+    <row r="88" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -1889,9 +1989,10 @@
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
-      <c r="N88" s="5"/>
-    </row>
-    <row r="89" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N88" s="8"/>
+      <c r="O88" s="5"/>
+    </row>
+    <row r="89" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -1904,9 +2005,10 @@
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
-      <c r="N89" s="5"/>
-    </row>
-    <row r="90" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N89" s="8"/>
+      <c r="O89" s="5"/>
+    </row>
+    <row r="90" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -1919,9 +2021,10 @@
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
-      <c r="N90" s="5"/>
-    </row>
-    <row r="91" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N90" s="8"/>
+      <c r="O90" s="5"/>
+    </row>
+    <row r="91" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -1934,9 +2037,10 @@
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
-      <c r="N91" s="5"/>
-    </row>
-    <row r="92" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N91" s="8"/>
+      <c r="O91" s="5"/>
+    </row>
+    <row r="92" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="7"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -1949,9 +2053,10 @@
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
-      <c r="N92" s="5"/>
-    </row>
-    <row r="93" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N92" s="8"/>
+      <c r="O92" s="5"/>
+    </row>
+    <row r="93" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -1964,9 +2069,10 @@
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
       <c r="M93" s="8"/>
-      <c r="N93" s="5"/>
-    </row>
-    <row r="94" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N93" s="8"/>
+      <c r="O93" s="5"/>
+    </row>
+    <row r="94" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -1979,9 +2085,10 @@
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="M94" s="8"/>
-      <c r="N94" s="5"/>
-    </row>
-    <row r="95" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N94" s="8"/>
+      <c r="O94" s="5"/>
+    </row>
+    <row r="95" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -1994,9 +2101,10 @@
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
-      <c r="N95" s="5"/>
-    </row>
-    <row r="96" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N95" s="8"/>
+      <c r="O95" s="5"/>
+    </row>
+    <row r="96" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -2009,9 +2117,10 @@
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
-      <c r="N96" s="5"/>
-    </row>
-    <row r="97" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N96" s="8"/>
+      <c r="O96" s="5"/>
+    </row>
+    <row r="97" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -2024,9 +2133,10 @@
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
-      <c r="N97" s="5"/>
-    </row>
-    <row r="98" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N97" s="8"/>
+      <c r="O97" s="5"/>
+    </row>
+    <row r="98" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -2039,9 +2149,10 @@
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
-      <c r="N98" s="5"/>
-    </row>
-    <row r="99" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N98" s="8"/>
+      <c r="O98" s="5"/>
+    </row>
+    <row r="99" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -2054,9 +2165,10 @@
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
-      <c r="N99" s="5"/>
-    </row>
-    <row r="100" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N99" s="8"/>
+      <c r="O99" s="5"/>
+    </row>
+    <row r="100" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -2069,9 +2181,10 @@
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
-      <c r="N100" s="5"/>
-    </row>
-    <row r="101" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N100" s="8"/>
+      <c r="O100" s="5"/>
+    </row>
+    <row r="101" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -2084,9 +2197,10 @@
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
-      <c r="N101" s="5"/>
-    </row>
-    <row r="102" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N101" s="8"/>
+      <c r="O101" s="5"/>
+    </row>
+    <row r="102" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -2099,9 +2213,10 @@
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
-      <c r="N102" s="5"/>
-    </row>
-    <row r="103" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N102" s="8"/>
+      <c r="O102" s="5"/>
+    </row>
+    <row r="103" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -2114,9 +2229,10 @@
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
-      <c r="N103" s="5"/>
-    </row>
-    <row r="104" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N103" s="8"/>
+      <c r="O103" s="5"/>
+    </row>
+    <row r="104" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -2129,9 +2245,10 @@
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
-      <c r="N104" s="5"/>
-    </row>
-    <row r="105" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N104" s="8"/>
+      <c r="O104" s="5"/>
+    </row>
+    <row r="105" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -2144,9 +2261,10 @@
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
-      <c r="N105" s="5"/>
-    </row>
-    <row r="106" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N105" s="8"/>
+      <c r="O105" s="5"/>
+    </row>
+    <row r="106" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -2159,9 +2277,10 @@
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
-      <c r="N106" s="5"/>
-    </row>
-    <row r="107" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N106" s="8"/>
+      <c r="O106" s="5"/>
+    </row>
+    <row r="107" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -2174,9 +2293,10 @@
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
-      <c r="N107" s="5"/>
-    </row>
-    <row r="108" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N107" s="8"/>
+      <c r="O107" s="5"/>
+    </row>
+    <row r="108" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -2189,9 +2309,10 @@
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
-      <c r="N108" s="5"/>
-    </row>
-    <row r="109" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N108" s="8"/>
+      <c r="O108" s="5"/>
+    </row>
+    <row r="109" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -2204,9 +2325,10 @@
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
-      <c r="N109" s="5"/>
-    </row>
-    <row r="110" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N109" s="8"/>
+      <c r="O109" s="5"/>
+    </row>
+    <row r="110" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -2219,9 +2341,10 @@
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
-      <c r="N110" s="5"/>
-    </row>
-    <row r="111" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N110" s="8"/>
+      <c r="O110" s="5"/>
+    </row>
+    <row r="111" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -2234,9 +2357,10 @@
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
-      <c r="N111" s="5"/>
-    </row>
-    <row r="112" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N111" s="8"/>
+      <c r="O111" s="5"/>
+    </row>
+    <row r="112" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -2249,9 +2373,10 @@
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
-      <c r="N112" s="5"/>
-    </row>
-    <row r="113" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N112" s="8"/>
+      <c r="O112" s="5"/>
+    </row>
+    <row r="113" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -2264,9 +2389,10 @@
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
-      <c r="N113" s="5"/>
-    </row>
-    <row r="114" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N113" s="8"/>
+      <c r="O113" s="5"/>
+    </row>
+    <row r="114" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -2279,9 +2405,10 @@
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
-      <c r="N114" s="5"/>
-    </row>
-    <row r="115" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N114" s="8"/>
+      <c r="O114" s="5"/>
+    </row>
+    <row r="115" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -2294,9 +2421,10 @@
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
-      <c r="N115" s="5"/>
-    </row>
-    <row r="116" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N115" s="8"/>
+      <c r="O115" s="5"/>
+    </row>
+    <row r="116" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -2309,9 +2437,10 @@
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
       <c r="M116" s="8"/>
-      <c r="N116" s="5"/>
-    </row>
-    <row r="117" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N116" s="8"/>
+      <c r="O116" s="5"/>
+    </row>
+    <row r="117" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -2324,9 +2453,10 @@
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
-      <c r="N117" s="5"/>
-    </row>
-    <row r="118" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N117" s="8"/>
+      <c r="O117" s="5"/>
+    </row>
+    <row r="118" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -2339,9 +2469,10 @@
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
-      <c r="N118" s="5"/>
-    </row>
-    <row r="119" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N118" s="8"/>
+      <c r="O118" s="5"/>
+    </row>
+    <row r="119" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -2354,9 +2485,10 @@
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
       <c r="M119" s="8"/>
-      <c r="N119" s="5"/>
-    </row>
-    <row r="120" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N119" s="8"/>
+      <c r="O119" s="5"/>
+    </row>
+    <row r="120" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -2369,9 +2501,10 @@
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
-      <c r="N120" s="5"/>
-    </row>
-    <row r="121" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N120" s="8"/>
+      <c r="O120" s="5"/>
+    </row>
+    <row r="121" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -2384,9 +2517,10 @@
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
-      <c r="N121" s="5"/>
-    </row>
-    <row r="122" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N121" s="8"/>
+      <c r="O121" s="5"/>
+    </row>
+    <row r="122" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -2399,9 +2533,10 @@
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
-      <c r="N122" s="5"/>
-    </row>
-    <row r="123" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N122" s="8"/>
+      <c r="O122" s="5"/>
+    </row>
+    <row r="123" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -2414,9 +2549,10 @@
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
-      <c r="N123" s="5"/>
-    </row>
-    <row r="124" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N123" s="8"/>
+      <c r="O123" s="5"/>
+    </row>
+    <row r="124" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="7"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -2429,9 +2565,10 @@
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
-      <c r="N124" s="5"/>
-    </row>
-    <row r="125" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N124" s="8"/>
+      <c r="O124" s="5"/>
+    </row>
+    <row r="125" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="7"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -2444,9 +2581,10 @@
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
-      <c r="N125" s="5"/>
-    </row>
-    <row r="126" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N125" s="8"/>
+      <c r="O125" s="5"/>
+    </row>
+    <row r="126" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="7"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -2459,9 +2597,10 @@
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
-      <c r="N126" s="5"/>
-    </row>
-    <row r="127" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N126" s="8"/>
+      <c r="O126" s="5"/>
+    </row>
+    <row r="127" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="7"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -2474,9 +2613,10 @@
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
-      <c r="N127" s="5"/>
-    </row>
-    <row r="128" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N127" s="8"/>
+      <c r="O127" s="5"/>
+    </row>
+    <row r="128" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="7"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -2489,9 +2629,10 @@
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
-      <c r="N128" s="5"/>
-    </row>
-    <row r="129" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N128" s="8"/>
+      <c r="O128" s="5"/>
+    </row>
+    <row r="129" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="7"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -2504,9 +2645,10 @@
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
-      <c r="N129" s="5"/>
-    </row>
-    <row r="130" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N129" s="8"/>
+      <c r="O129" s="5"/>
+    </row>
+    <row r="130" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="7"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -2519,9 +2661,10 @@
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
       <c r="M130" s="8"/>
-      <c r="N130" s="5"/>
-    </row>
-    <row r="131" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N130" s="8"/>
+      <c r="O130" s="5"/>
+    </row>
+    <row r="131" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="7"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -2534,9 +2677,10 @@
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
       <c r="M131" s="8"/>
-      <c r="N131" s="5"/>
-    </row>
-    <row r="132" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N131" s="8"/>
+      <c r="O131" s="5"/>
+    </row>
+    <row r="132" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="7"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -2549,9 +2693,10 @@
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
       <c r="M132" s="8"/>
-      <c r="N132" s="5"/>
-    </row>
-    <row r="133" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N132" s="8"/>
+      <c r="O132" s="5"/>
+    </row>
+    <row r="133" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="7"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -2564,9 +2709,10 @@
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
       <c r="M133" s="8"/>
-      <c r="N133" s="5"/>
-    </row>
-    <row r="134" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N133" s="8"/>
+      <c r="O133" s="5"/>
+    </row>
+    <row r="134" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="7"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -2579,9 +2725,10 @@
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
-      <c r="N134" s="5"/>
-    </row>
-    <row r="135" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N134" s="8"/>
+      <c r="O134" s="5"/>
+    </row>
+    <row r="135" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="7"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -2594,9 +2741,10 @@
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
       <c r="M135" s="8"/>
-      <c r="N135" s="5"/>
-    </row>
-    <row r="136" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N135" s="8"/>
+      <c r="O135" s="5"/>
+    </row>
+    <row r="136" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="7"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -2609,9 +2757,10 @@
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
       <c r="M136" s="8"/>
-      <c r="N136" s="5"/>
-    </row>
-    <row r="137" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N136" s="8"/>
+      <c r="O136" s="5"/>
+    </row>
+    <row r="137" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="7"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -2624,9 +2773,10 @@
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
       <c r="M137" s="8"/>
-      <c r="N137" s="5"/>
-    </row>
-    <row r="138" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N137" s="8"/>
+      <c r="O137" s="5"/>
+    </row>
+    <row r="138" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="7"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -2639,9 +2789,10 @@
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
       <c r="M138" s="8"/>
-      <c r="N138" s="5"/>
-    </row>
-    <row r="139" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N138" s="8"/>
+      <c r="O138" s="5"/>
+    </row>
+    <row r="139" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="7"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -2654,9 +2805,10 @@
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
       <c r="M139" s="8"/>
-      <c r="N139" s="5"/>
-    </row>
-    <row r="140" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N139" s="8"/>
+      <c r="O139" s="5"/>
+    </row>
+    <row r="140" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="7"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -2669,9 +2821,10 @@
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
       <c r="M140" s="8"/>
-      <c r="N140" s="5"/>
-    </row>
-    <row r="141" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N140" s="8"/>
+      <c r="O140" s="5"/>
+    </row>
+    <row r="141" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="7"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -2684,9 +2837,10 @@
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
       <c r="M141" s="8"/>
-      <c r="N141" s="5"/>
-    </row>
-    <row r="142" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N141" s="8"/>
+      <c r="O141" s="5"/>
+    </row>
+    <row r="142" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="7"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -2699,9 +2853,10 @@
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
       <c r="M142" s="8"/>
-      <c r="N142" s="5"/>
-    </row>
-    <row r="143" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N142" s="8"/>
+      <c r="O142" s="5"/>
+    </row>
+    <row r="143" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="7"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -2714,9 +2869,10 @@
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
       <c r="M143" s="8"/>
-      <c r="N143" s="5"/>
-    </row>
-    <row r="144" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N143" s="8"/>
+      <c r="O143" s="5"/>
+    </row>
+    <row r="144" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="7"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -2729,69 +2885,70 @@
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
       <c r="M144" s="8"/>
-      <c r="N144" s="5"/>
-    </row>
-    <row r="145" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N144" s="8"/>
+      <c r="O144" s="5"/>
+    </row>
+    <row r="145" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="3"/>
-      <c r="N145" s="2"/>
-    </row>
-    <row r="146" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O145" s="2"/>
+    </row>
+    <row r="146" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="3"/>
-      <c r="N146" s="2"/>
-    </row>
-    <row r="147" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O146" s="2"/>
+    </row>
+    <row r="147" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="3"/>
-      <c r="N147" s="2"/>
-    </row>
-    <row r="148" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O147" s="2"/>
+    </row>
+    <row r="148" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="3"/>
-      <c r="N148" s="2"/>
-    </row>
-    <row r="149" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O148" s="2"/>
+    </row>
+    <row r="149" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="3"/>
-      <c r="N149" s="2"/>
-    </row>
-    <row r="150" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O149" s="2"/>
+    </row>
+    <row r="150" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="3"/>
-      <c r="N150" s="2"/>
-    </row>
-    <row r="151" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O150" s="2"/>
+    </row>
+    <row r="151" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="3"/>
-      <c r="N151" s="2"/>
-    </row>
-    <row r="152" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O151" s="2"/>
+    </row>
+    <row r="152" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="3"/>
-      <c r="N152" s="2"/>
-    </row>
-    <row r="153" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O152" s="2"/>
+    </row>
+    <row r="153" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="3"/>
-      <c r="N153" s="2"/>
-    </row>
-    <row r="154" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O153" s="2"/>
+    </row>
+    <row r="154" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="3"/>
-      <c r="N154" s="2"/>
-    </row>
-    <row r="155" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O154" s="2"/>
+    </row>
+    <row r="155" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="3"/>
-      <c r="N155" s="2"/>
-    </row>
-    <row r="156" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O155" s="2"/>
+    </row>
+    <row r="156" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="3"/>
-      <c r="N156" s="2"/>
-    </row>
-    <row r="157" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O156" s="2"/>
+    </row>
+    <row r="157" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="3"/>
-      <c r="N157" s="2"/>
-    </row>
-    <row r="158" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O157" s="2"/>
+    </row>
+    <row r="158" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="3"/>
-      <c r="N158" s="2"/>
-    </row>
-    <row r="159" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O158" s="2"/>
+    </row>
+    <row r="159" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="3"/>
-      <c r="N159" s="2"/>
-    </row>
-    <row r="160" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O159" s="2"/>
+    </row>
+    <row r="160" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="3"/>
     </row>
     <row r="161" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -2819,21 +2976,22 @@
       <c r="B168" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+  <mergeCells count="15">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
